--- a/biology/Biochimie/Prényltransférase/Prényltransférase.xlsx
+++ b/biology/Biochimie/Prényltransférase/Prényltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pr%C3%A9nyltransf%C3%A9rase</t>
+          <t>Prényltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les prényltransférases forment une classe d'enzymes qui transfèrent des groupes allyliques prényle sur des composés accepteurs. Les prényltransférases désignent généralement les prényl-diphosphate synthases[2]. On les répartit traditionnellement en deux classes en fonction de la stéréochimie de leurs produits de réaction : la classe cis (ou Z) et la classe trans (ou E). La déhydrodolichyl-diphosphate synthase (en), qui produit un précurseur du dolichol, est une prényltransférase cis tandis que la diméthylallyltranstransférase et la géranylgéranyle diphosphate synthase sont des prényltransférases trans.
-La sous-unité β des farnésyltransférases (en) assure la liaison au peptide. Une squalène-hopène cyclase est une enzyme bactérienne qui catalyse la cyclisation du squalène en hopène, étape clé de la biosynthèse des hopanoïdes[1]. La lanostérol synthase catalyse quant à elle la cyclisation du (S)-2,3-oxydosqualène en lanostérol, précurseur du cholestérol, des hormones stéroïdiennes et de la vitamine D chez les vertébrés ou de l'ergocalciférol chez les mycètes[3]. La cycloarténol synthase est une enzyme des plantes qui convertit le (S)-2,3-oxydosqualène en cycloarténol.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prényltransférases forment une classe d'enzymes qui transfèrent des groupes allyliques prényle sur des composés accepteurs. Les prényltransférases désignent généralement les prényl-diphosphate synthases. On les répartit traditionnellement en deux classes en fonction de la stéréochimie de leurs produits de réaction : la classe cis (ou Z) et la classe trans (ou E). La déhydrodolichyl-diphosphate synthase (en), qui produit un précurseur du dolichol, est une prényltransférase cis tandis que la diméthylallyltranstransférase et la géranylgéranyle diphosphate synthase sont des prényltransférases trans.
+La sous-unité β des farnésyltransférases (en) assure la liaison au peptide. Une squalène-hopène cyclase est une enzyme bactérienne qui catalyse la cyclisation du squalène en hopène, étape clé de la biosynthèse des hopanoïdes. La lanostérol synthase catalyse quant à elle la cyclisation du (S)-2,3-oxydosqualène en lanostérol, précurseur du cholestérol, des hormones stéroïdiennes et de la vitamine D chez les vertébrés ou de l'ergocalciférol chez les mycètes. La cycloarténol synthase est une enzyme des plantes qui convertit le (S)-2,3-oxydosqualène en cycloarténol.
 </t>
         </is>
       </c>
